--- a/data-raw/ps_invivo_meta.xlsx
+++ b/data-raw/ps_invivo_meta.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/test/Documents/GitHub/DivComAnalyses/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{949B32BE-1DCA-C747-ADA0-77F44FF42495}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613250A7-59CB-5C41-B87A-B3EFD2A07508}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="2740" yWindow="2000" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ps_invivo_meta" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="179">
   <si>
     <t>Sample</t>
   </si>
@@ -554,12 +554,15 @@
   </si>
   <si>
     <t>S_478</t>
+  </si>
+  <si>
+    <t>qPCR16S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1393,14 +1396,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="22" max="22" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1464,8 +1472,11 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1529,8 +1540,11 @@
       <c r="U2">
         <v>180</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V2">
+        <v>6267021397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1594,8 +1608,11 @@
       <c r="U3">
         <v>787</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V3">
+        <v>3485387884</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1659,8 +1676,11 @@
       <c r="U4">
         <v>883</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V4">
+        <v>3921545950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1724,8 +1744,11 @@
       <c r="U5">
         <v>301</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V5">
+        <v>4593393763</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1789,8 +1812,11 @@
       <c r="U6">
         <v>149</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V6">
+        <v>5326555547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1854,8 +1880,11 @@
       <c r="U7">
         <v>526</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7">
+        <v>9529473961</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1919,8 +1948,11 @@
       <c r="U8">
         <v>870</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8">
+        <v>793370578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1984,8 +2016,11 @@
       <c r="U9">
         <v>109</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9">
+        <v>4238459865</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -2049,8 +2084,11 @@
       <c r="U10">
         <v>502</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10">
+        <v>3394372986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -2114,8 +2152,11 @@
       <c r="U11">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11">
+        <v>6965667569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -2179,8 +2220,11 @@
       <c r="U12">
         <v>130</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12">
+        <v>9809085540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -2244,8 +2288,11 @@
       <c r="U13">
         <v>112</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13">
+        <v>2199158088</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -2309,8 +2356,11 @@
       <c r="U14">
         <v>110</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14">
+        <v>1545454448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -2374,8 +2424,11 @@
       <c r="U15">
         <v>839</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15">
+        <v>8898316007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -2439,8 +2492,11 @@
       <c r="U16">
         <v>973</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V16">
+        <v>1810127421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2504,8 +2560,11 @@
       <c r="U17">
         <v>836</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V17">
+        <v>3396400745</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -2569,8 +2628,11 @@
       <c r="U18">
         <v>292</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V18">
+        <v>6452033177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -2634,8 +2696,11 @@
       <c r="U19">
         <v>936</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V19">
+        <v>7649545176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -2699,8 +2764,11 @@
       <c r="U20">
         <v>676</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V20">
+        <v>1372000557</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -2764,8 +2832,11 @@
       <c r="U21">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V21">
+        <v>3870584518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -2829,8 +2900,11 @@
       <c r="U22">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V22">
+        <v>5299677722</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -2894,8 +2968,11 @@
       <c r="U23">
         <v>471</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V23">
+        <v>6818140717</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -2959,8 +3036,11 @@
       <c r="U24">
         <v>488</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V24">
+        <v>3191064735</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -3024,8 +3104,11 @@
       <c r="U25">
         <v>403</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V25">
+        <v>3670664937</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -3089,8 +3172,11 @@
       <c r="U26">
         <v>957</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V26">
+        <v>3946760582</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -3154,8 +3240,11 @@
       <c r="U27">
         <v>988</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V27">
+        <v>1536970644</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -3219,8 +3308,11 @@
       <c r="U28">
         <v>838</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V28">
+        <v>5797859136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -3284,8 +3376,11 @@
       <c r="U29">
         <v>402</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V29">
+        <v>5795950021</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -3349,8 +3444,11 @@
       <c r="U30">
         <v>700</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V30">
+        <v>2903754254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>85</v>
       </c>
@@ -3414,8 +3512,11 @@
       <c r="U31">
         <v>832</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V31">
+        <v>868519675</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -3479,8 +3580,11 @@
       <c r="U32">
         <v>90</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V32">
+        <v>9163794132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -3544,8 +3648,11 @@
       <c r="U33">
         <v>925</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V33">
+        <v>3061776163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -3609,8 +3716,11 @@
       <c r="U34">
         <v>44</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V34">
+        <v>1652194304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -3674,8 +3784,11 @@
       <c r="U35">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V35">
+        <v>2501297340</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -3739,8 +3852,11 @@
       <c r="U36">
         <v>195</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V36">
+        <v>4470080621</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -3804,8 +3920,11 @@
       <c r="U37">
         <v>902</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V37">
+        <v>4488758271</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -3869,8 +3988,11 @@
       <c r="U38">
         <v>263</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V38">
+        <v>1250911007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -3934,8 +4056,11 @@
       <c r="U39">
         <v>615</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V39">
+        <v>2582146243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -3999,8 +4124,11 @@
       <c r="U40">
         <v>934</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V40">
+        <v>3335437229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -4064,8 +4192,11 @@
       <c r="U41">
         <v>252</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V41">
+        <v>1609179367</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -4129,8 +4260,11 @@
       <c r="U42">
         <v>259</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V42">
+        <v>4306497163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>99</v>
       </c>
@@ -4194,8 +4328,11 @@
       <c r="U43">
         <v>119</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V43">
+        <v>9742471760</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -4259,8 +4396,11 @@
       <c r="U44">
         <v>828</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V44">
+        <v>2167119004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -4324,8 +4464,11 @@
       <c r="U45">
         <v>839</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V45">
+        <v>1459269805</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>102</v>
       </c>
@@ -4389,8 +4532,11 @@
       <c r="U46">
         <v>948</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V46">
+        <v>9602070928</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>103</v>
       </c>
@@ -4454,8 +4600,11 @@
       <c r="U47">
         <v>494</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V47">
+        <v>6798636964</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -4519,8 +4668,11 @@
       <c r="U48">
         <v>728</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V48">
+        <v>274376502</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -4584,8 +4736,11 @@
       <c r="U49">
         <v>918</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V49">
+        <v>3209413532</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -4649,8 +4804,11 @@
       <c r="U50">
         <v>700</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V50">
+        <v>8874628759</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -4714,8 +4872,11 @@
       <c r="U51">
         <v>200</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V51">
+        <v>5924129955</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>108</v>
       </c>
@@ -4779,8 +4940,11 @@
       <c r="U52">
         <v>128</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V52">
+        <v>9545164338</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -4844,8 +5008,11 @@
       <c r="U53">
         <v>260</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V53">
+        <v>9979448787</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>110</v>
       </c>
@@ -4909,8 +5076,11 @@
       <c r="U54">
         <v>727</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V54">
+        <v>7796860323</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>111</v>
       </c>
@@ -4974,8 +5144,11 @@
       <c r="U55">
         <v>793</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V55">
+        <v>1206337475</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>112</v>
       </c>
@@ -5039,8 +5212,11 @@
       <c r="U56">
         <v>364</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V56">
+        <v>681724479</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -5104,8 +5280,11 @@
       <c r="U57">
         <v>207</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V57">
+        <v>4483728224</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>114</v>
       </c>
@@ -5169,8 +5348,11 @@
       <c r="U58">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V58">
+        <v>2917582002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>115</v>
       </c>
@@ -5234,8 +5416,11 @@
       <c r="U59">
         <v>428</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V59">
+        <v>8768849298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -5299,8 +5484,11 @@
       <c r="U60">
         <v>724</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V60">
+        <v>5510763945</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -5364,8 +5552,11 @@
       <c r="U61">
         <v>487</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V61">
+        <v>1299472274</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -5429,8 +5620,11 @@
       <c r="U62">
         <v>854</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V62">
+        <v>8064914569</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>121</v>
       </c>
@@ -5494,8 +5688,11 @@
       <c r="U63">
         <v>330</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V63">
+        <v>1583525025</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>122</v>
       </c>
@@ -5559,8 +5756,11 @@
       <c r="U64">
         <v>786</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V64">
+        <v>4339750440</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>123</v>
       </c>
@@ -5624,8 +5824,11 @@
       <c r="U65">
         <v>468</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V65">
+        <v>3763842789</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>124</v>
       </c>
@@ -5689,8 +5892,11 @@
       <c r="U66">
         <v>429</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V66">
+        <v>9874928371</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>125</v>
       </c>
@@ -5754,8 +5960,11 @@
       <c r="U67">
         <v>201</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V67">
+        <v>6434461879</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>126</v>
       </c>
@@ -5819,8 +6028,11 @@
       <c r="U68">
         <v>456</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V68">
+        <v>4849999629</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>127</v>
       </c>
@@ -5884,8 +6096,11 @@
       <c r="U69">
         <v>317</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V69">
+        <v>6340133335</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>128</v>
       </c>
@@ -5949,8 +6164,11 @@
       <c r="U70">
         <v>49</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V70">
+        <v>9411590433</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>129</v>
       </c>
@@ -6014,8 +6232,11 @@
       <c r="U71">
         <v>860</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V71">
+        <v>6803978142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>130</v>
       </c>
@@ -6079,8 +6300,11 @@
       <c r="U72">
         <v>391</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V72">
+        <v>9681304757</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>131</v>
       </c>
@@ -6144,8 +6368,11 @@
       <c r="U73">
         <v>731</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V73">
+        <v>6422169415</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>132</v>
       </c>
@@ -6209,8 +6436,11 @@
       <c r="U74">
         <v>724</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V74">
+        <v>8936196849</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>133</v>
       </c>
@@ -6274,8 +6504,11 @@
       <c r="U75">
         <v>849</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V75">
+        <v>9231432993</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>134</v>
       </c>
@@ -6339,8 +6572,11 @@
       <c r="U76">
         <v>871</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V76">
+        <v>8929737001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>135</v>
       </c>
@@ -6404,8 +6640,11 @@
       <c r="U77">
         <v>556</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V77">
+        <v>7133298692</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>136</v>
       </c>
@@ -6469,8 +6708,11 @@
       <c r="U78">
         <v>875</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V78">
+        <v>246189812</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>137</v>
       </c>
@@ -6534,8 +6776,11 @@
       <c r="U79">
         <v>392</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V79">
+        <v>899324623</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>138</v>
       </c>
@@ -6599,8 +6844,11 @@
       <c r="U80">
         <v>435</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V80">
+        <v>1847376761</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>139</v>
       </c>
@@ -6664,8 +6912,11 @@
       <c r="U81">
         <v>918</v>
       </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V81">
+        <v>8509425511</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>140</v>
       </c>
@@ -6729,8 +6980,11 @@
       <c r="U82">
         <v>555</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V82">
+        <v>162520358</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>142</v>
       </c>
@@ -6794,8 +7048,11 @@
       <c r="U83">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V83">
+        <v>3993777406</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>143</v>
       </c>
@@ -6859,8 +7116,11 @@
       <c r="U84">
         <v>1000</v>
       </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V84">
+        <v>2308376821</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>144</v>
       </c>
@@ -6924,8 +7184,11 @@
       <c r="U85">
         <v>380</v>
       </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V85">
+        <v>8508956507</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>145</v>
       </c>
@@ -6989,8 +7252,11 @@
       <c r="U86">
         <v>117</v>
       </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V86">
+        <v>8679190143</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>146</v>
       </c>
@@ -7054,8 +7320,11 @@
       <c r="U87">
         <v>659</v>
       </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V87">
+        <v>9272623824</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>147</v>
       </c>
@@ -7119,8 +7388,11 @@
       <c r="U88">
         <v>524</v>
       </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V88">
+        <v>457686432</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>148</v>
       </c>
@@ -7184,8 +7456,11 @@
       <c r="U89">
         <v>816</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V89">
+        <v>4670841129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>149</v>
       </c>
@@ -7249,8 +7524,11 @@
       <c r="U90">
         <v>891</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V90">
+        <v>1479646374</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>150</v>
       </c>
@@ -7314,8 +7592,11 @@
       <c r="U91">
         <v>861</v>
       </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V91">
+        <v>7435968181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>152</v>
       </c>
@@ -7379,8 +7660,11 @@
       <c r="U92">
         <v>940</v>
       </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V92">
+        <v>9610988672</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>153</v>
       </c>
@@ -7444,8 +7728,11 @@
       <c r="U93">
         <v>614</v>
       </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V93">
+        <v>6124028873</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>154</v>
       </c>
@@ -7509,8 +7796,11 @@
       <c r="U94">
         <v>757</v>
       </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V94">
+        <v>1985019725</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>155</v>
       </c>
@@ -7574,8 +7864,11 @@
       <c r="U95">
         <v>179</v>
       </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V95">
+        <v>6866920132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>156</v>
       </c>
@@ -7639,8 +7932,11 @@
       <c r="U96">
         <v>904</v>
       </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V96">
+        <v>6561323450</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>157</v>
       </c>
@@ -7704,8 +8000,11 @@
       <c r="U97">
         <v>310</v>
       </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V97">
+        <v>7751080922</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>158</v>
       </c>
@@ -7769,8 +8068,11 @@
       <c r="U98">
         <v>544</v>
       </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V98">
+        <v>7633753745</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>159</v>
       </c>
@@ -7834,8 +8136,11 @@
       <c r="U99">
         <v>106</v>
       </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V99">
+        <v>8237579261</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>160</v>
       </c>
@@ -7899,8 +8204,11 @@
       <c r="U100">
         <v>272</v>
       </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V100">
+        <v>8096443616</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>161</v>
       </c>
@@ -7964,8 +8272,11 @@
       <c r="U101">
         <v>740</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V101">
+        <v>2292478971</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>162</v>
       </c>
@@ -8029,8 +8340,11 @@
       <c r="U102">
         <v>219</v>
       </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V102">
+        <v>6380347545</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>163</v>
       </c>
@@ -8094,8 +8408,11 @@
       <c r="U103">
         <v>864</v>
       </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V103">
+        <v>1212677680</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>164</v>
       </c>
@@ -8159,8 +8476,11 @@
       <c r="U104">
         <v>773</v>
       </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V104">
+        <v>5527923305</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>165</v>
       </c>
@@ -8224,8 +8544,11 @@
       <c r="U105">
         <v>945</v>
       </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V105">
+        <v>8143616506</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>166</v>
       </c>
@@ -8289,8 +8612,11 @@
       <c r="U106">
         <v>642</v>
       </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V106">
+        <v>8818074667</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>167</v>
       </c>
@@ -8354,8 +8680,11 @@
       <c r="U107">
         <v>158</v>
       </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V107">
+        <v>310677895</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>168</v>
       </c>
@@ -8419,8 +8748,11 @@
       <c r="U108">
         <v>990</v>
       </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V108">
+        <v>786338568</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>169</v>
       </c>
@@ -8484,8 +8816,11 @@
       <c r="U109">
         <v>361</v>
       </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V109">
+        <v>8273300715</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>170</v>
       </c>
@@ -8549,8 +8884,11 @@
       <c r="U110">
         <v>716</v>
       </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V110">
+        <v>6988540118</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>171</v>
       </c>
@@ -8614,8 +8952,11 @@
       <c r="U111">
         <v>418</v>
       </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V111">
+        <v>1077678482</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>172</v>
       </c>
@@ -8679,8 +9020,11 @@
       <c r="U112">
         <v>205</v>
       </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V112">
+        <v>991846116</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>173</v>
       </c>
@@ -8744,8 +9088,11 @@
       <c r="U113">
         <v>715</v>
       </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V113">
+        <v>1568496720</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>174</v>
       </c>
@@ -8809,8 +9156,11 @@
       <c r="U114">
         <v>641</v>
       </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V114">
+        <v>2354341416</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>175</v>
       </c>
@@ -8874,8 +9224,11 @@
       <c r="U115">
         <v>947</v>
       </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V115">
+        <v>5929022150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>176</v>
       </c>
@@ -8939,8 +9292,11 @@
       <c r="U116">
         <v>435</v>
       </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V116">
+        <v>9509018889</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>177</v>
       </c>
@@ -9003,6 +9359,9 @@
       </c>
       <c r="U117">
         <v>31</v>
+      </c>
+      <c r="V117">
+        <v>3090026149</v>
       </c>
     </row>
   </sheetData>
